--- a/biology/Botanique/Tritonia_(plante)/Tritonia_(plante).xlsx
+++ b/biology/Botanique/Tritonia_(plante)/Tritonia_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tritonia est un genre de plantes à fleurs de la famille des Iridaceae.
 Ce sont de petites plantes bulbeuses atteignant 8 cm de haut, apparaissant en grand nombre au printemps dans leur région d'origine, l'Afrique du Sud.
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (13 janvier 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (13 janvier 2019) :
 Tritonia atrorubens (N.E. Br.) L. Bolus
 Tritonia bakeri Klatt
 Tritonia chrysantha Fourc.
@@ -541,7 +555,7 @@
 Tritonia squalida (Aiton) Ker Gawl.
 Tritonia tugwelliae L. Bolus
 Tritonia undulata (Burm.f.) Baker
-Selon GRIN            (13 janvier 2019)[3] :
+Selon GRIN            (13 janvier 2019) :
 Tritonia crispa (L. f.) Ker Gawl.
 Tritonia crocata (L.) Ker Gawl.
 Tritonia deusta (Aiton) Ker Gawl.
@@ -549,7 +563,7 @@
 Tritonia gladiolaris (Lam.) Goldblatt &amp; J. C. Manning
 Tritonia parvula N. E. Br.
 Tritonia spp.
-Selon World Checklist of Selected Plant Families (WCSP)  (13 janvier 2019)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (13 janvier 2019) :
 Tritonia atrorubens L.Bolus (1927)
 Tritonia bakeri Klatt (1882)
 sous-espèce Tritonia bakeri subsp. bakeri
@@ -593,10 +607,10 @@
 Tritonia squalida (Aiton) Ker Gawl. (1802)
 Tritonia tugwelliae L.Bolus (1926)
 Tritonia undulata (Burm.f.) Baker, J. Linn. Soc. (1877)
-Selon NCBI  (13 janvier 2019)[5] :
+Selon NCBI  (13 janvier 2019) :
 Tritonia disticha Baker
 Tritonia gladiolaris (Lam.) Goldblatt &amp; J.C.Manning
-Selon The Plant List            (13 janvier 2019)[6] :
+Selon The Plant List            (13 janvier 2019) :
 Tritonia atrorubens (N.E.Br.) L.Bolus
 Tritonia bakeri Klatt
 Tritonia chrysantha Fourc.
@@ -623,7 +637,7 @@
 Tritonia squalida (Aiton) Ker Gawl.
 Tritonia tugwelliae L.Bolus
 Tritonia undulata (Burm.f.) Baker
-Selon Tropicos                                           (13 janvier 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (13 janvier 2019) (Attention liste brute contenant possiblement des synonymes) :
 Tritonia abyssinica (Hochst. ex A. Rich.) Walp.
 Tritonia acroloba Harms
 Tritonia anigozanthiflora (Heynh.) Sweet
